--- a/medicine/Enfance/Wiggins_et_le_Perroquet_muet/Wiggins_et_le_Perroquet_muet.xlsx
+++ b/medicine/Enfance/Wiggins_et_le_Perroquet_muet/Wiggins_et_le_Perroquet_muet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Wiggins et le Perroquet muet est un roman policier pour la jeunesse écrit par Béatrice Nicodème.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Londres, février 1899, une danseuse de cabaret est étranglée. Lestrade est dépassé. Sur place, Holmes repère des traces rondes sentant le poisson. Il charge Wiggins de retrouver un unijambiste susceptible de fréquenter Billingsgate market. Wiggins se rend d'abord chez la logeuse de la danseuse, c'est elle qui a fait la macabre découverte. Interrogée, un détail lui revient : ce jour-là, Loulou, le perroquet empaillé de Violet Juniper, n'était plus là.
 Par des amies, sur le marché, la mère de Wiggins retrouve la trace de l'estropié. Il s'agit du père de la danseuse mais l'homme est mort d'une crise cardiaque peu de temps après l'enterrement de sa fille. La danseuse vivait seule et ne voyait que son père. Le perroquet ne peut être qu'un cadeau du père. Wiggins part à la recherche du taxidermiste. Devant la devanture du magasin, il est harponné par Ferguson, le propriétaire qui le prend pour le nouvel apprenti. L'ancien a été retrouvé mort dans la Tamise. Wiggins accepte la place.
@@ -545,7 +559,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Wiggins
 Sherlock Holmes
@@ -580,7 +596,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1992 : Syros (Souris Noire)
 1997 : Syros (Souris noire)
